--- a/docs/PTA2_DDC_100/PTA2_DDC_100_07.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731787885.9397247</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731787889.4278657</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787885.9397247.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787889.4278657.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.94</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731787889.9963992</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731787891.6388876</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787889.9963992.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787891.6388876.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.79</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.42</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731787893.9957252</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731787897.668818</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787893.9957252.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787897.668818.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731787898.6959155</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731787898.6959155.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731787898.6959155.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>281.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>281.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>281.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731787899.728197</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731787903.9665236</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787899.728197.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787903.9665236.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.54</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.43</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.109999999999985</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731787904.4460146</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731787905.9788687</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787904.4460146.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787905.9788687.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.14</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731787908.422294</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731787910.0781724</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787908.422294.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787910.0781724.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.37</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.91</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731787912.7959325</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731787912.7959325.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731787912.7959325.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>128.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>128.61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.01000000000001933</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731787915.367584</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731787918.168862</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787915.367584.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787918.168862.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6383.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6399.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>16</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731787918.9723094</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731787920.4982877</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787918.9723094.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787920.4982877.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6414.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6397.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>17</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731787923.8935897</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731787926.5431051</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787923.8935897.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787926.5431051.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6425</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6443.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-18.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1095,95 +1177,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731787927.6009226</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731787927.6009226.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731787927.6009226.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6485</v>
       </c>
-      <c r="J14" t="n">
-        <v>6485</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6480.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731787929.6633375</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731787931.5014782</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787929.6633375.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787931.5014782.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>493</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>493.15</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731787933.213359</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731787934.7482345</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787933.213359.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787934.7482345.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>494.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>495.45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731787938.3158808</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731787941.662785</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787938.3158808.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787941.662785.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>499.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>501.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.900000000000034</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1295,95 +1401,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731787943.3129456</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731787943.3129456.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731787943.3129456.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>504.75</v>
       </c>
-      <c r="J18" t="n">
-        <v>504.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>503.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9499999999999886</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731787944.0156312</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731787948.1560483</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787944.0156312.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787948.1560483.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.14</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>224.1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.039999999999992</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731787948.5721588</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731787948.8477423</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787948.5721588.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787948.8477423.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.66</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>223.63</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.030000000000001</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731787952.9289253</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731787956.099534</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787952.9289253.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787956.099534.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.68</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>225.01</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.3299999999999841</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1495,95 +1625,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731787957.4693475</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731787957.4693475.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731787957.4693475.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>226.42</v>
       </c>
-      <c r="J22" t="n">
-        <v>226.42</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>225.97</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731787958.6969762</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731787962.339118</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787958.6969762.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787962.339118.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1002</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1001.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731787962.8158891</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731787964.0050275</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787962.8158891.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787964.0050275.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731787966.780201</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731787970.2075572</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787966.780201.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787970.2075572.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1007</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1006.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1695,95 +1849,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731787972.2881896</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731787972.2881896.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731787972.2881896.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>1011.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1011.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731787973.544444</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731787976.160233</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787973.544444.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787976.160233.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.853</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.86</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731787976.5277958</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731787984.2632706</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787976.5277958.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787984.2632706.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.867</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.908</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.04099999999999859</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731787984.337329</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731787987.740975</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787984.337329.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787987.740975.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.898</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731787988.0043318</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731787992.3475456</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787988.0043318.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787992.3475456.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.68</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>123.48</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.200000000000003</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.96</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731787992.4351974</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731787993.833549</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787992.4351974.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787993.833549.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>123.52</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>123.04</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731787995.2162576</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731787996.8170466</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787995.2162576.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787996.8170466.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>122.64</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>123.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731787998.7883077</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731787999.755713</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787998.7883077.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787999.755713.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>123.38</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>123</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731787999.8326955</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731787999.8326955.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731787999.8326955.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>123.58</v>
       </c>
-      <c r="J34" t="n">
-        <v>123.58</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731788002.8292265</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731788006.526849</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788002.8292265.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788006.526849.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>159.7</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>159.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731788011.320116</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731788014.078537</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788011.320116.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788014.078537.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>159.98</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>160.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731788014.3435931</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731788014.3915284</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788014.3435931.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788014.3915284.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>160.06</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>160.08</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731788014.759693</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731788015.2712157</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788014.759693.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788015.2712157.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>159.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>160.06</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2355,95 +2587,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731788015.7554934</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731788015.7554934.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731788015.7554934.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>160.76</v>
       </c>
-      <c r="J39" t="n">
-        <v>160.76</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>160.34</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4199999999999875</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731788016.960441</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731788021.345936</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788016.960441.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788021.345936.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.195</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>48.605</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.5900000000000034</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -2451,51 +2695,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731788025.1384218</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731788025.5402162</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788025.1384218.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788025.5402162.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>48.675</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>48.61</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2503,51 +2753,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731788026.6586406</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731788027.2369275</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788026.6586406.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788027.2369275.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>48.88</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>48.63</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.25</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2555,51 +2811,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731788028.0240948</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731788029.3329208</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788028.0240948.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788029.3329208.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>48.885</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>48.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2607,95 +2869,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731788030.0320308</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731788030.0320308.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731788030.0320308.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>49.02</v>
       </c>
-      <c r="J44" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>49.19</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.1699999999999946</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731788032.5009317</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731788035.218473</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788032.5009317.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788035.218473.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1361.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1362</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731788035.5720644</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731788038.0936046</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788035.5720644.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788038.0936046.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1373.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1367.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>6.399999999999864</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2755,51 +3035,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731788039.6816676</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731788041.668447</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788039.6816676.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788041.668447.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1373.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1372</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2807,51 +3093,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731788042.3357255</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731788043.5018651</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788042.3357255.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788043.5018651.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1378</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1376.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2859,95 +3151,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731788044.0732987</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731788044.0732987.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731788044.0732987.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J49" t="n">
-        <v>1383.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1382.4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731788046.5049083</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731788049.4279373</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788046.5049083.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788049.4279373.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>59.75</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>59.83</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2955,51 +3259,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731788049.65404</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731788052.2394757</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788049.65404.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788052.2394757.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>60.19</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>59.92</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3007,51 +3317,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731788054.7465425</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731788059.2624815</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788054.7465425.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788059.2624815.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>60.38</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.8</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.4199999999999946</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -3059,95 +3375,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731788059.5351233</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731788059.5351233.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731788059.5351233.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.65</v>
       </c>
-      <c r="J53" t="n">
-        <v>60.65</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>60.67</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731788060.1280966</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731788063.3745658</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788060.1280966.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788063.3745658.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>95.69</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.210000000000008</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3155,51 +3483,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731788063.9765048</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731788067.7685437</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788063.9765048.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788067.7685437.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>96.11</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.2900000000000063</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3207,51 +3541,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731788068.8204565</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731788072.4697845</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788068.8204565.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788072.4697845.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>96.93000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>97.73999999999999</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.8099999999999881</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -3259,51 +3599,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731788073.3484142</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731788074.456098</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788073.3484142.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788074.456098.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>98.38</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>98.11</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3311,51 +3657,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731788075.494197</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731788078.9071374</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788075.494197.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788078.9071374.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>55.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>55.59</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3363,95 +3715,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731788082.1716592</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731788082.1716592.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731788082.1716592.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>55.6</v>
       </c>
-      <c r="J59" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>56.31</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7100000000000009</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-1.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731788087.4312172</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731788090.5300097</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788087.4312172.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788090.5300097.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>143.44</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>142.36</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.079999999999984</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -3459,51 +3823,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731788091.077314</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731788098.2068126</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788091.077314.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788098.2068126.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>143.66</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>144.56</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.9000000000000057</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -3511,51 +3881,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731788100.105587</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731788102.63016</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788100.105587.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788102.63016.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.68</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.686</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3563,51 +3939,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731788103.560719</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731788105.6180322</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788103.560719.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788105.6180322.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.755</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.7</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3615,51 +3997,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731788107.22958</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731788107.7317684</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788107.22958.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788107.7317684.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.635</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>19.764</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1289999999999978</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -3667,51 +4055,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731788108.5060632</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731788109.9401083</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788108.5060632.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788109.9401083.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>19.787</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>19.735</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.0519999999999996</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3719,51 +4113,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731788110.1957283</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731788112.003853</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788110.1957283.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788112.003853.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>19.889</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>19.849</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3771,95 +4171,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731788112.4966083</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731788112.4966083.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731788112.4966083.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.006</v>
       </c>
-      <c r="J67" t="n">
-        <v>20.006</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>20.265</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.2590000000000003</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731788114.8058486</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731788117.9103656</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788114.8058486.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788117.9103656.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>667.75</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>666.6</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.149999999999977</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3867,51 +4279,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731788118.1840024</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731788120.1687872</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788118.1840024.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788120.1687872.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>669.8</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>666.5</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>3.299999999999955</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -3919,51 +4337,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731788122.4155219</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731788122.9587862</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788122.4155219.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788122.9587862.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>669.35</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>668.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3971,51 +4395,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731788124.9439366</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731788125.7424347</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788124.9439366.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788125.7424347.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>671.65</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>669.15</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.5</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4023,95 +4453,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731788126.849722</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731788126.849722.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731788126.849722.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>672.6</v>
       </c>
-      <c r="J72" t="n">
-        <v>672.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>674.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-1.899999999999977</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731788128.1830916</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731788131.6245959</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788128.1830916.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788131.6245959.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>147.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>146.55</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -4119,51 +4561,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731788131.8699386</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731788134.1635168</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788131.8699386.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788134.1635168.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>147.35</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>146.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.75</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -4171,95 +4619,107 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731788136.7670803</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731788136.7670803.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731788136.7670803.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>148.68</v>
       </c>
-      <c r="J75" t="n">
-        <v>148.68</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>155.8</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-7.120000000000005</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-4.79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731788142.167201</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731788142.8246872</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788142.167201.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788142.8246872.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.095</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.0005200000000000066</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4267,51 +4727,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731788145.9424167</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731788151.0710194</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788145.9424167.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788151.0710194.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09578</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09678</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-1.04</v>
       </c>
     </row>
@@ -4319,95 +4785,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731788154.3552587</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731788154.3552587.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731788154.3552587.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09778000000000001</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.09778000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.09752</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0002600000000000102</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731788155.5715635</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731788159.347745</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788155.5715635.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788159.347745.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2893.05</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2884.3</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-8.75</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -4415,51 +4893,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731788159.6866212</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731788161.545071</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788159.6866212.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788161.545071.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2892.7</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2884</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>8.699999999999818</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4467,51 +4951,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731788164.1635747</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731788167.3875835</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788164.1635747.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788167.3875835.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2901.8</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2906</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-4.199999999999818</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4519,44 +5009,50 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731788168.414398</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731788168.414398.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731788168.414398.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2919.55</v>
       </c>
-      <c r="J82" t="n">
-        <v>2919.55</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2919.65</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -4617,19 +5113,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2819999999999965</v>
+        <v>0.02299999999999613</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04699999999999941</v>
+        <v>0.003833333333332689</v>
       </c>
       <c r="E2" t="n">
-        <v>1.43</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -4639,19 +5135,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.999999999999773</v>
+        <v>10.79999999999973</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.999999999999954</v>
+        <v>2.159999999999946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -4661,19 +5157,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.299999999999955</v>
+        <v>3.399999999999977</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.059999999999991</v>
+        <v>0.6799999999999955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -4683,19 +5179,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2199999999999847</v>
+        <v>-0.3400000000000176</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04399999999999693</v>
+        <v>-0.06800000000000353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -4705,19 +5201,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1900000000000048</v>
+        <v>-0.3599999999999994</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03800000000000096</v>
+        <v>-0.07199999999999988</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.39</v>
+        <v>-0.74</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="7">
@@ -4727,19 +5223,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03999999999999204</v>
+        <v>0.3799999999999955</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.007999999999998408</v>
+        <v>0.0759999999999991</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -4749,19 +5245,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3199999999999932</v>
+        <v>-0.2099999999999795</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.05249999999999488</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.12</v>
+        <v>-0.07999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
@@ -4793,16 +5289,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05000000000002558</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01250000000000639</v>
+        <v>0.01000000000000156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.03999999999999993</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -4815,19 +5311,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>3.625</v>
+        <v>4.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -4837,19 +5333,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.339999999999975</v>
+        <v>0.1100000000000136</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08499999999999375</v>
+        <v>0.02750000000000341</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.15</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -4859,19 +5355,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01750000000000007</v>
+        <v>-0.01249999999999929</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1200000000000001</v>
+        <v>-0.09000000000000011</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
@@ -4881,13 +5377,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.25</v>
+        <v>-4.349999999999909</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.0625</v>
+        <v>-1.087499999999977</v>
       </c>
       <c r="E14" t="n">
         <v>-0.14</v>
@@ -4903,19 +5399,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4000000000000909</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1000000000000227</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -4925,19 +5421,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.800000000000068</v>
+        <v>-1.85000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7000000000000171</v>
+        <v>-0.4625000000000199</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.14</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="17">
@@ -4947,19 +5443,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1000000000000227</v>
+        <v>-7.019999999999982</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03333333333334091</v>
+        <v>-2.339999999999994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07000000000000001</v>
+        <v>-4.72</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="18">
@@ -4969,19 +5465,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004799999999999943</v>
+        <v>-0.0002199999999999841</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0001599999999999981</v>
+        <v>-7.333333333332803e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4900000000000001</v>
+        <v>-0.2200000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.16</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5013,19 +5509,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.5</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1050000000000004</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.38</v>
+        <v>-0.9</v>
       </c>
       <c r="F20" t="n">
-        <v>0.19</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="21">
